--- a/QCS_Pipeline/Pipeline_#2_(QCS+Tissue)/output/NormAE_propranolol_batch_dataset.xlsx
+++ b/QCS_Pipeline/Pipeline_#2_(QCS+Tissue)/output/NormAE_propranolol_batch_dataset.xlsx
@@ -717,10 +717,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>14188.289</v>
+        <v>9376.347</v>
       </c>
       <c r="E2" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="3">
@@ -734,10 +734,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>14210.421</v>
+        <v>9946.387</v>
       </c>
       <c r="E3" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="4">
@@ -751,10 +751,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>9740.164</v>
+        <v>7119.228</v>
       </c>
       <c r="E4" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="5">
@@ -768,10 +768,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>9677.405</v>
+        <v>7049.223</v>
       </c>
       <c r="E5" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="6">
@@ -785,10 +785,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>10933.549</v>
+        <v>7826.986</v>
       </c>
       <c r="E6" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="7">
@@ -802,10 +802,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>15599.185</v>
+        <v>11890.672</v>
       </c>
       <c r="E7" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="8">
@@ -819,10 +819,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>12853.8125</v>
+        <v>10874.601</v>
       </c>
       <c r="E8" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="9">
@@ -836,10 +836,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>12667.033</v>
+        <v>10688.915</v>
       </c>
       <c r="E9" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="10">
@@ -853,10 +853,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>10199.071</v>
+        <v>7755.642</v>
       </c>
       <c r="E10" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="11">
@@ -870,10 +870,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>10516.717</v>
+        <v>7593.706</v>
       </c>
       <c r="E11" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="12">
@@ -887,10 +887,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>10363.809</v>
+        <v>7556.702</v>
       </c>
       <c r="E12" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="13">
@@ -904,10 +904,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>13965.371</v>
+        <v>11524.338</v>
       </c>
       <c r="E13" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="14">
@@ -921,10 +921,10 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>15833.502</v>
+        <v>13218.197</v>
       </c>
       <c r="E14" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="15">
@@ -938,10 +938,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>14160.793</v>
+        <v>11425.561</v>
       </c>
       <c r="E15" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="16">
@@ -955,10 +955,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>11190.907</v>
+        <v>8191.9136</v>
       </c>
       <c r="E16" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="17">
@@ -972,10 +972,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>9911.443</v>
+        <v>7353.111</v>
       </c>
       <c r="E17" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="18">
@@ -989,10 +989,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>9934.5625</v>
+        <v>7587.891</v>
       </c>
       <c r="E18" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="19">
@@ -1006,10 +1006,10 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>13482.006</v>
+        <v>10518.101</v>
       </c>
       <c r="E19" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="20">
@@ -1023,10 +1023,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>16169.472</v>
+        <v>13078.833</v>
       </c>
       <c r="E20" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="21">
@@ -1040,10 +1040,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>15654.131</v>
+        <v>12089.848</v>
       </c>
       <c r="E21" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="22">
@@ -1057,10 +1057,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>11424.956</v>
+        <v>7519.3853</v>
       </c>
       <c r="E22" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="23">
@@ -1074,10 +1074,10 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>11381.151</v>
+        <v>7151.4517</v>
       </c>
       <c r="E23" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="24">
@@ -1091,10 +1091,10 @@
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>11470.463</v>
+        <v>7672.4023</v>
       </c>
       <c r="E24" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="25">
@@ -1108,10 +1108,10 @@
         <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>17851.502</v>
+        <v>12780.225</v>
       </c>
       <c r="E25" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="26">
@@ -1125,10 +1125,10 @@
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>15142.958</v>
+        <v>10074.775</v>
       </c>
       <c r="E26" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="27">
@@ -1142,10 +1142,10 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>15227.837</v>
+        <v>10436.251</v>
       </c>
       <c r="E27" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="28">
@@ -1159,10 +1159,10 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>12582.952</v>
+        <v>9016.252</v>
       </c>
       <c r="E28" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="29">
@@ -1176,10 +1176,10 @@
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>12003.299</v>
+        <v>8639.5205</v>
       </c>
       <c r="E29" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="30">
@@ -1193,10 +1193,10 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>13271.537</v>
+        <v>9707.244</v>
       </c>
       <c r="E30" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="31">
@@ -1210,10 +1210,10 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>16532.355</v>
+        <v>11761.535</v>
       </c>
       <c r="E31" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="32">
@@ -1227,10 +1227,10 @@
         <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>18596.615</v>
+        <v>13431.552</v>
       </c>
       <c r="E32" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="33">
@@ -1244,10 +1244,10 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>17803.21</v>
+        <v>12978.499</v>
       </c>
       <c r="E33" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="34">
@@ -1261,10 +1261,10 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>13046.666</v>
+        <v>8847.697</v>
       </c>
       <c r="E34" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="35">
@@ -1278,10 +1278,10 @@
         <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>11423.402</v>
+        <v>8001.3364</v>
       </c>
       <c r="E35" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="36">
@@ -1295,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>10344.216</v>
+        <v>7458.531</v>
       </c>
       <c r="E36" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="37">
@@ -1312,10 +1312,10 @@
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>16820.225</v>
+        <v>12262.744</v>
       </c>
       <c r="E37" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="38">
@@ -1329,10 +1329,10 @@
         <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>12852.077</v>
+        <v>9281.844</v>
       </c>
       <c r="E38" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="39">
@@ -1346,10 +1346,10 @@
         <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>14530.535</v>
+        <v>10724.156</v>
       </c>
       <c r="E39" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="40">
@@ -1363,10 +1363,10 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>9406.318</v>
+        <v>6569.095</v>
       </c>
       <c r="E40" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="41">
@@ -1380,10 +1380,10 @@
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>9876.486</v>
+        <v>6721.8223</v>
       </c>
       <c r="E41" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="42">
@@ -1397,10 +1397,10 @@
         <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>10946.899</v>
+        <v>7305.6885</v>
       </c>
       <c r="E42" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="43">
@@ -1414,10 +1414,10 @@
         <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>15658.948</v>
+        <v>11109.479</v>
       </c>
       <c r="E43" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="44">
@@ -1431,10 +1431,10 @@
         <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>16345.407</v>
+        <v>12076.007</v>
       </c>
       <c r="E44" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="45">
@@ -1448,10 +1448,10 @@
         <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>16552.945</v>
+        <v>12269.064</v>
       </c>
       <c r="E45" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="46">
@@ -1465,10 +1465,10 @@
         <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>12082.331</v>
+        <v>8194.082</v>
       </c>
       <c r="E46" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="47">
@@ -1482,10 +1482,10 @@
         <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>11869.732</v>
+        <v>8034.697</v>
       </c>
       <c r="E47" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="48">
@@ -1499,10 +1499,10 @@
         <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>10542.245</v>
+        <v>7479.3022</v>
       </c>
       <c r="E48" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="49">
@@ -1516,10 +1516,10 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>17283.717</v>
+        <v>12888.178</v>
       </c>
       <c r="E49" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="50">
@@ -1533,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>18002.072</v>
+        <v>13831.14</v>
       </c>
       <c r="E50" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="51">
@@ -1550,10 +1550,10 @@
         <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>17402.953</v>
+        <v>13247.509</v>
       </c>
       <c r="E51" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="52">
@@ -1567,10 +1567,10 @@
         <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>12989.376</v>
+        <v>8745.249</v>
       </c>
       <c r="E52" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="53">
@@ -1584,10 +1584,10 @@
         <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>12514.168</v>
+        <v>8810.192</v>
       </c>
       <c r="E53" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="54">
@@ -1601,10 +1601,10 @@
         <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>10644.633</v>
+        <v>7679.115</v>
       </c>
       <c r="E54" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="55">
@@ -1618,10 +1618,10 @@
         <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>16959.994</v>
+        <v>12701.465</v>
       </c>
       <c r="E55" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="56">
@@ -1635,10 +1635,10 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>19521.354</v>
+        <v>13501.815</v>
       </c>
       <c r="E56" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="57">
@@ -1652,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>19127.781</v>
+        <v>13696.7</v>
       </c>
       <c r="E57" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="58">
@@ -1669,10 +1669,10 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>12578.139</v>
+        <v>8389.118</v>
       </c>
       <c r="E58" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="59">
@@ -1686,10 +1686,10 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>12105.188</v>
+        <v>7985.8413</v>
       </c>
       <c r="E59" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="60">
@@ -1703,10 +1703,10 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>12757.104</v>
+        <v>8142.1724</v>
       </c>
       <c r="E60" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="61">
@@ -1720,10 +1720,10 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>18649.258</v>
+        <v>14246.561</v>
       </c>
       <c r="E61" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="62">
@@ -1737,10 +1737,10 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>17476.646</v>
+        <v>13340.603</v>
       </c>
       <c r="E62" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="63">
@@ -1754,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>18002.111</v>
+        <v>14364.278</v>
       </c>
       <c r="E63" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="64">
@@ -1771,10 +1771,10 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>11556.277</v>
+        <v>7584.696</v>
       </c>
       <c r="E64" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="65">
@@ -1788,10 +1788,10 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>11866.399</v>
+        <v>7842.6724</v>
       </c>
       <c r="E65" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="66">
@@ -1805,10 +1805,10 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>12352.866</v>
+        <v>8072.421</v>
       </c>
       <c r="E66" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="67">
@@ -1822,10 +1822,10 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>17904.309</v>
+        <v>13952.2705</v>
       </c>
       <c r="E67" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="68">
@@ -1839,10 +1839,10 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>17931.22</v>
+        <v>15119.956</v>
       </c>
       <c r="E68" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="69">
@@ -1856,10 +1856,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>18227.125</v>
+        <v>15608.326</v>
       </c>
       <c r="E69" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="70">
@@ -1873,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>12860.964</v>
+        <v>10221.435</v>
       </c>
       <c r="E70" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="71">
@@ -1890,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>9430.176</v>
+        <v>7426.96</v>
       </c>
       <c r="E71" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="72">
@@ -1907,10 +1907,10 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>9339.547</v>
+        <v>7203.6216</v>
       </c>
       <c r="E72" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="73">
@@ -1924,10 +1924,10 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>15305.767</v>
+        <v>12802.227</v>
       </c>
       <c r="E73" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="74">
@@ -1941,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>11469.294</v>
+        <v>9155.753</v>
       </c>
       <c r="E74" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="75">
@@ -1958,10 +1958,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>11629.48</v>
+        <v>9222.577</v>
       </c>
       <c r="E75" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="76">
@@ -1975,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>10885.301</v>
+        <v>8644.224</v>
       </c>
       <c r="E76" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="77">
@@ -1992,10 +1992,10 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>10285.5</v>
+        <v>8262.378</v>
       </c>
       <c r="E77" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="78">
@@ -2009,10 +2009,10 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>10427.48</v>
+        <v>8260.565</v>
       </c>
       <c r="E78" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="79">
@@ -2026,10 +2026,10 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>10977.887</v>
+        <v>8401.853</v>
       </c>
       <c r="E79" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="80">
@@ -2043,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>12530.903</v>
+        <v>9450.352</v>
       </c>
       <c r="E80" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="81">
@@ -2060,10 +2060,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>11576.767</v>
+        <v>8676.725</v>
       </c>
       <c r="E81" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="82">
@@ -2077,10 +2077,10 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>12849.591</v>
+        <v>10046.306</v>
       </c>
       <c r="E82" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="83">
@@ -2094,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>11199.767</v>
+        <v>8996.262</v>
       </c>
       <c r="E83" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="84">
@@ -2111,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>10540.754</v>
+        <v>8645.546</v>
       </c>
       <c r="E84" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="85">
@@ -2128,10 +2128,10 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>9906.882</v>
+        <v>7587.32</v>
       </c>
       <c r="E85" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="86">
@@ -2145,10 +2145,10 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>13797.209</v>
+        <v>10223.068</v>
       </c>
       <c r="E86" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="87">
@@ -2162,10 +2162,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>13208.056</v>
+        <v>9910.593</v>
       </c>
       <c r="E87" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="88">
@@ -2179,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>14241.03</v>
+        <v>10625.714</v>
       </c>
       <c r="E88" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="89">
@@ -2196,10 +2196,10 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>12707.142</v>
+        <v>9674.079</v>
       </c>
       <c r="E89" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="90">
@@ -2213,10 +2213,10 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>13343.853</v>
+        <v>10055.989</v>
       </c>
       <c r="E90" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="91">
@@ -2230,10 +2230,10 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>11751.573</v>
+        <v>8330.198</v>
       </c>
       <c r="E91" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="92">
@@ -2247,10 +2247,10 @@
         <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>13990.452</v>
+        <v>9980.815</v>
       </c>
       <c r="E92" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="93">
@@ -2264,10 +2264,10 @@
         <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>15201.423</v>
+        <v>11597.059</v>
       </c>
       <c r="E93" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="94">
@@ -2281,10 +2281,10 @@
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>10269.425</v>
+        <v>7113.7593</v>
       </c>
       <c r="E94" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="95">
@@ -2298,10 +2298,10 @@
         <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>12456.006</v>
+        <v>7832.1455</v>
       </c>
       <c r="E95" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="96">
@@ -2315,10 +2315,10 @@
         <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>12141.364</v>
+        <v>7786.978</v>
       </c>
       <c r="E96" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="97">
@@ -2332,10 +2332,10 @@
         <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>19576.652</v>
+        <v>15412.382</v>
       </c>
       <c r="E97" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="98">
@@ -2349,10 +2349,10 @@
         <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>16676.543</v>
+        <v>13856.666</v>
       </c>
       <c r="E98" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="99">
@@ -2366,10 +2366,10 @@
         <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>16393.887</v>
+        <v>13535.241</v>
       </c>
       <c r="E99" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="100">
@@ -2383,10 +2383,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>10671.913</v>
+        <v>7838.655</v>
       </c>
       <c r="E100" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="101">
@@ -2400,10 +2400,10 @@
         <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>12004.29</v>
+        <v>7900.9414</v>
       </c>
       <c r="E101" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="102">
@@ -2417,10 +2417,10 @@
         <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>12069.394</v>
+        <v>7962.361</v>
       </c>
       <c r="E102" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="103">
@@ -2434,10 +2434,10 @@
         <v>2</v>
       </c>
       <c r="D103" t="n">
-        <v>18353.672</v>
+        <v>14216.011</v>
       </c>
       <c r="E103" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="104">
@@ -2451,10 +2451,10 @@
         <v>2</v>
       </c>
       <c r="D104" t="n">
-        <v>18724.156</v>
+        <v>13391.221</v>
       </c>
       <c r="E104" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="105">
@@ -2468,10 +2468,10 @@
         <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>18293.494</v>
+        <v>12719.592</v>
       </c>
       <c r="E105" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="106">
@@ -2485,10 +2485,10 @@
         <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>13030.889</v>
+        <v>8194.685</v>
       </c>
       <c r="E106" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="107">
@@ -2502,10 +2502,10 @@
         <v>2</v>
       </c>
       <c r="D107" t="n">
-        <v>11677.772</v>
+        <v>7772.91</v>
       </c>
       <c r="E107" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="108">
@@ -2519,10 +2519,10 @@
         <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>11033.584</v>
+        <v>7456.9165</v>
       </c>
       <c r="E108" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="109">
@@ -2536,10 +2536,10 @@
         <v>2</v>
       </c>
       <c r="D109" t="n">
-        <v>18766.234</v>
+        <v>12988.521</v>
       </c>
       <c r="E109" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
   </sheetData>
@@ -2584,10 +2584,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>19521.354</v>
+        <v>13501.815</v>
       </c>
       <c r="E2" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="3">
@@ -2601,10 +2601,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>19127.781</v>
+        <v>13696.7</v>
       </c>
       <c r="E3" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="4">
@@ -2618,10 +2618,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>12578.139</v>
+        <v>8389.118</v>
       </c>
       <c r="E4" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="5">
@@ -2635,10 +2635,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>12105.188</v>
+        <v>7985.8413</v>
       </c>
       <c r="E5" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="6">
@@ -2652,10 +2652,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>12757.104</v>
+        <v>8142.1724</v>
       </c>
       <c r="E6" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="7">
@@ -2669,10 +2669,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>18649.258</v>
+        <v>14246.561</v>
       </c>
       <c r="E7" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="8">
@@ -2686,10 +2686,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>17476.646</v>
+        <v>13340.603</v>
       </c>
       <c r="E8" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="9">
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>18002.111</v>
+        <v>14364.278</v>
       </c>
       <c r="E9" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="10">
@@ -2720,10 +2720,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>11556.277</v>
+        <v>7584.696</v>
       </c>
       <c r="E10" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="11">
@@ -2737,10 +2737,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>11866.399</v>
+        <v>7842.6724</v>
       </c>
       <c r="E11" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="12">
@@ -2754,10 +2754,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>12352.866</v>
+        <v>8072.421</v>
       </c>
       <c r="E12" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="13">
@@ -2771,10 +2771,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>17904.309</v>
+        <v>13952.2705</v>
       </c>
       <c r="E13" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="14">
@@ -2788,10 +2788,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>17931.22</v>
+        <v>15119.956</v>
       </c>
       <c r="E14" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="15">
@@ -2805,10 +2805,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>18227.125</v>
+        <v>15608.326</v>
       </c>
       <c r="E15" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="16">
@@ -2822,10 +2822,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>12860.964</v>
+        <v>10221.435</v>
       </c>
       <c r="E16" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="17">
@@ -2839,10 +2839,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>9430.176</v>
+        <v>7426.96</v>
       </c>
       <c r="E17" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="18">
@@ -2856,10 +2856,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>9339.547</v>
+        <v>7203.6216</v>
       </c>
       <c r="E18" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="19">
@@ -2873,10 +2873,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>15305.767</v>
+        <v>12802.227</v>
       </c>
       <c r="E19" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="20">
@@ -2890,10 +2890,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>11469.294</v>
+        <v>9155.753</v>
       </c>
       <c r="E20" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="21">
@@ -2907,10 +2907,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>11629.48</v>
+        <v>9222.577</v>
       </c>
       <c r="E21" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="22">
@@ -2924,10 +2924,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>10885.301</v>
+        <v>8644.224</v>
       </c>
       <c r="E22" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="23">
@@ -2941,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>10285.5</v>
+        <v>8262.378</v>
       </c>
       <c r="E23" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="24">
@@ -2958,10 +2958,10 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>10427.48</v>
+        <v>8260.565</v>
       </c>
       <c r="E24" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="25">
@@ -2975,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>10977.887</v>
+        <v>8401.853</v>
       </c>
       <c r="E25" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="26">
@@ -2992,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>12530.903</v>
+        <v>9450.352</v>
       </c>
       <c r="E26" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="27">
@@ -3009,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>11576.767</v>
+        <v>8676.725</v>
       </c>
       <c r="E27" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="28">
@@ -3026,10 +3026,10 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>12849.591</v>
+        <v>10046.306</v>
       </c>
       <c r="E28" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="29">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>11199.767</v>
+        <v>8996.262</v>
       </c>
       <c r="E29" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="30">
@@ -3060,10 +3060,10 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>10540.754</v>
+        <v>8645.546</v>
       </c>
       <c r="E30" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="31">
@@ -3077,10 +3077,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>9906.882</v>
+        <v>7587.32</v>
       </c>
       <c r="E31" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="32">
@@ -3094,10 +3094,10 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>13797.209</v>
+        <v>10223.068</v>
       </c>
       <c r="E32" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="33">
@@ -3111,10 +3111,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>13208.056</v>
+        <v>9910.593</v>
       </c>
       <c r="E33" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="34">
@@ -3128,10 +3128,10 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>14241.03</v>
+        <v>10625.714</v>
       </c>
       <c r="E34" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="35">
@@ -3145,10 +3145,10 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>12707.142</v>
+        <v>9674.079</v>
       </c>
       <c r="E35" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="36">
@@ -3162,10 +3162,10 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>13343.853</v>
+        <v>10055.989</v>
       </c>
       <c r="E36" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
     <row r="37">
@@ -3179,10 +3179,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>11751.573</v>
+        <v>8330.198</v>
       </c>
       <c r="E37" t="n">
-        <v>22.5458383921895</v>
+        <v>24.7928089188362</v>
       </c>
     </row>
   </sheetData>
@@ -3227,10 +3227,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>14188.289</v>
+        <v>9376.347</v>
       </c>
       <c r="E2" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="3">
@@ -3244,10 +3244,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>14210.421</v>
+        <v>9946.387</v>
       </c>
       <c r="E3" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="4">
@@ -3261,10 +3261,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>9740.164</v>
+        <v>7119.228</v>
       </c>
       <c r="E4" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="5">
@@ -3278,10 +3278,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>9677.405</v>
+        <v>7049.223</v>
       </c>
       <c r="E5" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="6">
@@ -3295,10 +3295,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>10933.549</v>
+        <v>7826.986</v>
       </c>
       <c r="E6" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="7">
@@ -3312,10 +3312,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>15599.185</v>
+        <v>11890.672</v>
       </c>
       <c r="E7" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="8">
@@ -3329,10 +3329,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>12853.8125</v>
+        <v>10874.601</v>
       </c>
       <c r="E8" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="9">
@@ -3346,10 +3346,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>12667.033</v>
+        <v>10688.915</v>
       </c>
       <c r="E9" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="10">
@@ -3363,10 +3363,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>10199.071</v>
+        <v>7755.642</v>
       </c>
       <c r="E10" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="11">
@@ -3380,10 +3380,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>10516.717</v>
+        <v>7593.706</v>
       </c>
       <c r="E11" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="12">
@@ -3397,10 +3397,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>10363.809</v>
+        <v>7556.702</v>
       </c>
       <c r="E12" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="13">
@@ -3414,10 +3414,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>13965.371</v>
+        <v>11524.338</v>
       </c>
       <c r="E13" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="14">
@@ -3431,10 +3431,10 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>15833.502</v>
+        <v>13218.197</v>
       </c>
       <c r="E14" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="15">
@@ -3448,10 +3448,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>14160.793</v>
+        <v>11425.561</v>
       </c>
       <c r="E15" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="16">
@@ -3465,10 +3465,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>11190.907</v>
+        <v>8191.9136</v>
       </c>
       <c r="E16" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="17">
@@ -3482,10 +3482,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>9911.443</v>
+        <v>7353.111</v>
       </c>
       <c r="E17" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="18">
@@ -3499,10 +3499,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>9934.5625</v>
+        <v>7587.891</v>
       </c>
       <c r="E18" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="19">
@@ -3516,10 +3516,10 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>13482.006</v>
+        <v>10518.101</v>
       </c>
       <c r="E19" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="20">
@@ -3533,10 +3533,10 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>13990.452</v>
+        <v>9980.815</v>
       </c>
       <c r="E20" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="21">
@@ -3550,10 +3550,10 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>15201.423</v>
+        <v>11597.059</v>
       </c>
       <c r="E21" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="22">
@@ -3567,10 +3567,10 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>10269.425</v>
+        <v>7113.7593</v>
       </c>
       <c r="E22" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="23">
@@ -3584,10 +3584,10 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>12456.006</v>
+        <v>7832.1455</v>
       </c>
       <c r="E23" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="24">
@@ -3601,10 +3601,10 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>12141.364</v>
+        <v>7786.978</v>
       </c>
       <c r="E24" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="25">
@@ -3618,10 +3618,10 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>19576.652</v>
+        <v>15412.382</v>
       </c>
       <c r="E25" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="26">
@@ -3635,10 +3635,10 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>16676.543</v>
+        <v>13856.666</v>
       </c>
       <c r="E26" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="27">
@@ -3652,10 +3652,10 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>16393.887</v>
+        <v>13535.241</v>
       </c>
       <c r="E27" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="28">
@@ -3669,10 +3669,10 @@
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>10671.913</v>
+        <v>7838.655</v>
       </c>
       <c r="E28" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="29">
@@ -3686,10 +3686,10 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>12004.29</v>
+        <v>7900.9414</v>
       </c>
       <c r="E29" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="30">
@@ -3703,10 +3703,10 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>12069.394</v>
+        <v>7962.361</v>
       </c>
       <c r="E30" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="31">
@@ -3720,10 +3720,10 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>18353.672</v>
+        <v>14216.011</v>
       </c>
       <c r="E31" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="32">
@@ -3737,10 +3737,10 @@
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>18724.156</v>
+        <v>13391.221</v>
       </c>
       <c r="E32" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="33">
@@ -3754,10 +3754,10 @@
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>18293.494</v>
+        <v>12719.592</v>
       </c>
       <c r="E33" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="34">
@@ -3771,10 +3771,10 @@
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>13030.889</v>
+        <v>8194.685</v>
       </c>
       <c r="E34" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="35">
@@ -3788,10 +3788,10 @@
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>11677.772</v>
+        <v>7772.91</v>
       </c>
       <c r="E35" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="36">
@@ -3805,10 +3805,10 @@
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>11033.584</v>
+        <v>7456.9165</v>
       </c>
       <c r="E36" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
     <row r="37">
@@ -3822,10 +3822,10 @@
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>18766.234</v>
+        <v>12988.521</v>
       </c>
       <c r="E37" t="n">
-        <v>22.035554120945</v>
+        <v>25.6957150924983</v>
       </c>
     </row>
   </sheetData>
@@ -3870,10 +3870,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>16169.472</v>
+        <v>13078.833</v>
       </c>
       <c r="E2" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="3">
@@ -3887,10 +3887,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>15654.131</v>
+        <v>12089.848</v>
       </c>
       <c r="E3" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="4">
@@ -3904,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>11424.956</v>
+        <v>7519.3853</v>
       </c>
       <c r="E4" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="5">
@@ -3921,10 +3921,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>11381.151</v>
+        <v>7151.4517</v>
       </c>
       <c r="E5" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="6">
@@ -3938,10 +3938,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>11470.463</v>
+        <v>7672.4023</v>
       </c>
       <c r="E6" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="7">
@@ -3955,10 +3955,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>17851.502</v>
+        <v>12780.225</v>
       </c>
       <c r="E7" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="8">
@@ -3972,10 +3972,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>15142.958</v>
+        <v>10074.775</v>
       </c>
       <c r="E8" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="9">
@@ -3989,10 +3989,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>15227.837</v>
+        <v>10436.251</v>
       </c>
       <c r="E9" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="10">
@@ -4006,10 +4006,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>12582.952</v>
+        <v>9016.252</v>
       </c>
       <c r="E10" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="11">
@@ -4023,10 +4023,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>12003.299</v>
+        <v>8639.5205</v>
       </c>
       <c r="E11" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="12">
@@ -4040,10 +4040,10 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>13271.537</v>
+        <v>9707.244</v>
       </c>
       <c r="E12" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="13">
@@ -4057,10 +4057,10 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>16532.355</v>
+        <v>11761.535</v>
       </c>
       <c r="E13" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="14">
@@ -4074,10 +4074,10 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>18596.615</v>
+        <v>13431.552</v>
       </c>
       <c r="E14" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="15">
@@ -4091,10 +4091,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>17803.21</v>
+        <v>12978.499</v>
       </c>
       <c r="E15" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="16">
@@ -4108,10 +4108,10 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>13046.666</v>
+        <v>8847.697</v>
       </c>
       <c r="E16" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="17">
@@ -4125,10 +4125,10 @@
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>11423.402</v>
+        <v>8001.3364</v>
       </c>
       <c r="E17" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="18">
@@ -4142,10 +4142,10 @@
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>10344.216</v>
+        <v>7458.531</v>
       </c>
       <c r="E18" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="19">
@@ -4159,10 +4159,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>16820.225</v>
+        <v>12262.744</v>
       </c>
       <c r="E19" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="20">
@@ -4176,10 +4176,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>12852.077</v>
+        <v>9281.844</v>
       </c>
       <c r="E20" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="21">
@@ -4193,10 +4193,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>14530.535</v>
+        <v>10724.156</v>
       </c>
       <c r="E21" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="22">
@@ -4210,10 +4210,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>9406.318</v>
+        <v>6569.095</v>
       </c>
       <c r="E22" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="23">
@@ -4227,10 +4227,10 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>9876.486</v>
+        <v>6721.8223</v>
       </c>
       <c r="E23" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="24">
@@ -4244,10 +4244,10 @@
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>10946.899</v>
+        <v>7305.6885</v>
       </c>
       <c r="E24" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="25">
@@ -4261,10 +4261,10 @@
         <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>15658.948</v>
+        <v>11109.479</v>
       </c>
       <c r="E25" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="26">
@@ -4278,10 +4278,10 @@
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>16345.407</v>
+        <v>12076.007</v>
       </c>
       <c r="E26" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="27">
@@ -4295,10 +4295,10 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>16552.945</v>
+        <v>12269.064</v>
       </c>
       <c r="E27" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="28">
@@ -4312,10 +4312,10 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>12082.331</v>
+        <v>8194.082</v>
       </c>
       <c r="E28" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="29">
@@ -4329,10 +4329,10 @@
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>11869.732</v>
+        <v>8034.697</v>
       </c>
       <c r="E29" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="30">
@@ -4346,10 +4346,10 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>10542.245</v>
+        <v>7479.3022</v>
       </c>
       <c r="E30" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="31">
@@ -4363,10 +4363,10 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>17283.717</v>
+        <v>12888.178</v>
       </c>
       <c r="E31" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="32">
@@ -4380,10 +4380,10 @@
         <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>18002.072</v>
+        <v>13831.14</v>
       </c>
       <c r="E32" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="33">
@@ -4397,10 +4397,10 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>17402.953</v>
+        <v>13247.509</v>
       </c>
       <c r="E33" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="34">
@@ -4414,10 +4414,10 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>12989.376</v>
+        <v>8745.249</v>
       </c>
       <c r="E34" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="35">
@@ -4431,10 +4431,10 @@
         <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>12514.168</v>
+        <v>8810.192</v>
       </c>
       <c r="E35" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="36">
@@ -4448,10 +4448,10 @@
         <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>10644.633</v>
+        <v>7679.115</v>
       </c>
       <c r="E36" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
     <row r="37">
@@ -4465,10 +4465,10 @@
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>16959.994</v>
+        <v>12701.465</v>
       </c>
       <c r="E37" t="n">
-        <v>19.7948595467553</v>
+        <v>23.2147822593129</v>
       </c>
     </row>
   </sheetData>
@@ -4513,10 +4513,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>14188.289</v>
+        <v>9376.347</v>
       </c>
       <c r="E2" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="3">
@@ -4530,10 +4530,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>14210.421</v>
+        <v>9946.387</v>
       </c>
       <c r="E3" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="4">
@@ -4547,10 +4547,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>9740.164</v>
+        <v>7119.228</v>
       </c>
       <c r="E4" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="5">
@@ -4564,10 +4564,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>9677.405</v>
+        <v>7049.223</v>
       </c>
       <c r="E5" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="6">
@@ -4581,10 +4581,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>10933.549</v>
+        <v>7826.986</v>
       </c>
       <c r="E6" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="7">
@@ -4598,10 +4598,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>15599.185</v>
+        <v>11890.672</v>
       </c>
       <c r="E7" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="8">
@@ -4615,10 +4615,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>12853.8125</v>
+        <v>10874.601</v>
       </c>
       <c r="E8" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="9">
@@ -4632,10 +4632,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>12667.033</v>
+        <v>10688.915</v>
       </c>
       <c r="E9" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="10">
@@ -4649,10 +4649,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>10199.071</v>
+        <v>7755.642</v>
       </c>
       <c r="E10" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="11">
@@ -4666,10 +4666,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>10516.717</v>
+        <v>7593.706</v>
       </c>
       <c r="E11" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="12">
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>10363.809</v>
+        <v>7556.702</v>
       </c>
       <c r="E12" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="13">
@@ -4700,10 +4700,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>13965.371</v>
+        <v>11524.338</v>
       </c>
       <c r="E13" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="14">
@@ -4717,10 +4717,10 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>15833.502</v>
+        <v>13218.197</v>
       </c>
       <c r="E14" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="15">
@@ -4734,10 +4734,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>14160.793</v>
+        <v>11425.561</v>
       </c>
       <c r="E15" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="16">
@@ -4751,10 +4751,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>11190.907</v>
+        <v>8191.9136</v>
       </c>
       <c r="E16" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="17">
@@ -4768,10 +4768,10 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>9911.443</v>
+        <v>7353.111</v>
       </c>
       <c r="E17" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="18">
@@ -4785,10 +4785,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>9934.5625</v>
+        <v>7587.891</v>
       </c>
       <c r="E18" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="19">
@@ -4802,10 +4802,10 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>13482.006</v>
+        <v>10518.101</v>
       </c>
       <c r="E19" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="20">
@@ -4819,10 +4819,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>16169.472</v>
+        <v>13078.833</v>
       </c>
       <c r="E20" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="21">
@@ -4836,10 +4836,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>15654.131</v>
+        <v>12089.848</v>
       </c>
       <c r="E21" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="22">
@@ -4853,10 +4853,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>11424.956</v>
+        <v>7519.3853</v>
       </c>
       <c r="E22" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="23">
@@ -4870,10 +4870,10 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>11381.151</v>
+        <v>7151.4517</v>
       </c>
       <c r="E23" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="24">
@@ -4887,10 +4887,10 @@
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>11470.463</v>
+        <v>7672.4023</v>
       </c>
       <c r="E24" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="25">
@@ -4904,10 +4904,10 @@
         <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>17851.502</v>
+        <v>12780.225</v>
       </c>
       <c r="E25" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="26">
@@ -4921,10 +4921,10 @@
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>15142.958</v>
+        <v>10074.775</v>
       </c>
       <c r="E26" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="27">
@@ -4938,10 +4938,10 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>15227.837</v>
+        <v>10436.251</v>
       </c>
       <c r="E27" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="28">
@@ -4955,10 +4955,10 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>12582.952</v>
+        <v>9016.252</v>
       </c>
       <c r="E28" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="29">
@@ -4972,10 +4972,10 @@
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>12003.299</v>
+        <v>8639.5205</v>
       </c>
       <c r="E29" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="30">
@@ -4989,10 +4989,10 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>13271.537</v>
+        <v>9707.244</v>
       </c>
       <c r="E30" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="31">
@@ -5006,10 +5006,10 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>16532.355</v>
+        <v>11761.535</v>
       </c>
       <c r="E31" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="32">
@@ -5023,10 +5023,10 @@
         <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>18596.615</v>
+        <v>13431.552</v>
       </c>
       <c r="E32" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="33">
@@ -5040,10 +5040,10 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>17803.21</v>
+        <v>12978.499</v>
       </c>
       <c r="E33" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="34">
@@ -5057,10 +5057,10 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>13046.666</v>
+        <v>8847.697</v>
       </c>
       <c r="E34" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="35">
@@ -5074,10 +5074,10 @@
         <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>11423.402</v>
+        <v>8001.3364</v>
       </c>
       <c r="E35" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="36">
@@ -5091,10 +5091,10 @@
         <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>10344.216</v>
+        <v>7458.531</v>
       </c>
       <c r="E36" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="37">
@@ -5108,10 +5108,10 @@
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>16820.225</v>
+        <v>12262.744</v>
       </c>
       <c r="E37" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="38">
@@ -5125,10 +5125,10 @@
         <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>12852.077</v>
+        <v>9281.844</v>
       </c>
       <c r="E38" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="39">
@@ -5142,10 +5142,10 @@
         <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>14530.535</v>
+        <v>10724.156</v>
       </c>
       <c r="E39" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="40">
@@ -5159,10 +5159,10 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>9406.318</v>
+        <v>6569.095</v>
       </c>
       <c r="E40" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="41">
@@ -5176,10 +5176,10 @@
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>9876.486</v>
+        <v>6721.8223</v>
       </c>
       <c r="E41" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="42">
@@ -5193,10 +5193,10 @@
         <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>10946.899</v>
+        <v>7305.6885</v>
       </c>
       <c r="E42" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="43">
@@ -5210,10 +5210,10 @@
         <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>15658.948</v>
+        <v>11109.479</v>
       </c>
       <c r="E43" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="44">
@@ -5227,10 +5227,10 @@
         <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>16345.407</v>
+        <v>12076.007</v>
       </c>
       <c r="E44" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="45">
@@ -5244,10 +5244,10 @@
         <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>16552.945</v>
+        <v>12269.064</v>
       </c>
       <c r="E45" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="46">
@@ -5261,10 +5261,10 @@
         <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>12082.331</v>
+        <v>8194.082</v>
       </c>
       <c r="E46" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="47">
@@ -5278,10 +5278,10 @@
         <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>11869.732</v>
+        <v>8034.697</v>
       </c>
       <c r="E47" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="48">
@@ -5295,10 +5295,10 @@
         <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>10542.245</v>
+        <v>7479.3022</v>
       </c>
       <c r="E48" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="49">
@@ -5312,10 +5312,10 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>17283.717</v>
+        <v>12888.178</v>
       </c>
       <c r="E49" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="50">
@@ -5329,10 +5329,10 @@
         <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>18002.072</v>
+        <v>13831.14</v>
       </c>
       <c r="E50" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="51">
@@ -5346,10 +5346,10 @@
         <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>17402.953</v>
+        <v>13247.509</v>
       </c>
       <c r="E51" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="52">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>12989.376</v>
+        <v>8745.249</v>
       </c>
       <c r="E52" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="53">
@@ -5380,10 +5380,10 @@
         <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>12514.168</v>
+        <v>8810.192</v>
       </c>
       <c r="E53" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="54">
@@ -5397,10 +5397,10 @@
         <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>10644.633</v>
+        <v>7679.115</v>
       </c>
       <c r="E54" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="55">
@@ -5414,10 +5414,10 @@
         <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>16959.994</v>
+        <v>12701.465</v>
       </c>
       <c r="E55" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="56">
@@ -5431,10 +5431,10 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>19521.354</v>
+        <v>13501.815</v>
       </c>
       <c r="E56" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="57">
@@ -5448,10 +5448,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>19127.781</v>
+        <v>13696.7</v>
       </c>
       <c r="E57" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="58">
@@ -5465,10 +5465,10 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>12578.139</v>
+        <v>8389.118</v>
       </c>
       <c r="E58" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="59">
@@ -5482,10 +5482,10 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>12105.188</v>
+        <v>7985.8413</v>
       </c>
       <c r="E59" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="60">
@@ -5499,10 +5499,10 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>12757.104</v>
+        <v>8142.1724</v>
       </c>
       <c r="E60" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="61">
@@ -5516,10 +5516,10 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>18649.258</v>
+        <v>14246.561</v>
       </c>
       <c r="E61" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="62">
@@ -5533,10 +5533,10 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>17476.646</v>
+        <v>13340.603</v>
       </c>
       <c r="E62" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="63">
@@ -5550,10 +5550,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>18002.111</v>
+        <v>14364.278</v>
       </c>
       <c r="E63" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="64">
@@ -5567,10 +5567,10 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>11556.277</v>
+        <v>7584.696</v>
       </c>
       <c r="E64" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="65">
@@ -5584,10 +5584,10 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>11866.399</v>
+        <v>7842.6724</v>
       </c>
       <c r="E65" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="66">
@@ -5601,10 +5601,10 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>12352.866</v>
+        <v>8072.421</v>
       </c>
       <c r="E66" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="67">
@@ -5618,10 +5618,10 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>17904.309</v>
+        <v>13952.2705</v>
       </c>
       <c r="E67" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="68">
@@ -5635,10 +5635,10 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>17931.22</v>
+        <v>15119.956</v>
       </c>
       <c r="E68" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="69">
@@ -5652,10 +5652,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>18227.125</v>
+        <v>15608.326</v>
       </c>
       <c r="E69" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="70">
@@ -5669,10 +5669,10 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>12860.964</v>
+        <v>10221.435</v>
       </c>
       <c r="E70" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="71">
@@ -5686,10 +5686,10 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>9430.176</v>
+        <v>7426.96</v>
       </c>
       <c r="E71" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="72">
@@ -5703,10 +5703,10 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>9339.547</v>
+        <v>7203.6216</v>
       </c>
       <c r="E72" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="73">
@@ -5720,10 +5720,10 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>15305.767</v>
+        <v>12802.227</v>
       </c>
       <c r="E73" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="74">
@@ -5737,10 +5737,10 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>11469.294</v>
+        <v>9155.753</v>
       </c>
       <c r="E74" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="75">
@@ -5754,10 +5754,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>11629.48</v>
+        <v>9222.577</v>
       </c>
       <c r="E75" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="76">
@@ -5771,10 +5771,10 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>10885.301</v>
+        <v>8644.224</v>
       </c>
       <c r="E76" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="77">
@@ -5788,10 +5788,10 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>10285.5</v>
+        <v>8262.378</v>
       </c>
       <c r="E77" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="78">
@@ -5805,10 +5805,10 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>10427.48</v>
+        <v>8260.565</v>
       </c>
       <c r="E78" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="79">
@@ -5822,10 +5822,10 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>10977.887</v>
+        <v>8401.853</v>
       </c>
       <c r="E79" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="80">
@@ -5839,10 +5839,10 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>12530.903</v>
+        <v>9450.352</v>
       </c>
       <c r="E80" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="81">
@@ -5856,10 +5856,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>11576.767</v>
+        <v>8676.725</v>
       </c>
       <c r="E81" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="82">
@@ -5873,10 +5873,10 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>12849.591</v>
+        <v>10046.306</v>
       </c>
       <c r="E82" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="83">
@@ -5890,10 +5890,10 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>11199.767</v>
+        <v>8996.262</v>
       </c>
       <c r="E83" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="84">
@@ -5907,10 +5907,10 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>10540.754</v>
+        <v>8645.546</v>
       </c>
       <c r="E84" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="85">
@@ -5924,10 +5924,10 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>9906.882</v>
+        <v>7587.32</v>
       </c>
       <c r="E85" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="86">
@@ -5941,10 +5941,10 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>13797.209</v>
+        <v>10223.068</v>
       </c>
       <c r="E86" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="87">
@@ -5958,10 +5958,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>13208.056</v>
+        <v>9910.593</v>
       </c>
       <c r="E87" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="88">
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>14241.03</v>
+        <v>10625.714</v>
       </c>
       <c r="E88" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="89">
@@ -5992,10 +5992,10 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>12707.142</v>
+        <v>9674.079</v>
       </c>
       <c r="E89" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="90">
@@ -6009,10 +6009,10 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>13343.853</v>
+        <v>10055.989</v>
       </c>
       <c r="E90" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="91">
@@ -6026,10 +6026,10 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>11751.573</v>
+        <v>8330.198</v>
       </c>
       <c r="E91" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="92">
@@ -6043,10 +6043,10 @@
         <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>13990.452</v>
+        <v>9980.815</v>
       </c>
       <c r="E92" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="93">
@@ -6060,10 +6060,10 @@
         <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>15201.423</v>
+        <v>11597.059</v>
       </c>
       <c r="E93" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="94">
@@ -6077,10 +6077,10 @@
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>10269.425</v>
+        <v>7113.7593</v>
       </c>
       <c r="E94" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="95">
@@ -6094,10 +6094,10 @@
         <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>12456.006</v>
+        <v>7832.1455</v>
       </c>
       <c r="E95" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="96">
@@ -6111,10 +6111,10 @@
         <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>12141.364</v>
+        <v>7786.978</v>
       </c>
       <c r="E96" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="97">
@@ -6128,10 +6128,10 @@
         <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>19576.652</v>
+        <v>15412.382</v>
       </c>
       <c r="E97" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="98">
@@ -6145,10 +6145,10 @@
         <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>16676.543</v>
+        <v>13856.666</v>
       </c>
       <c r="E98" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="99">
@@ -6162,10 +6162,10 @@
         <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>16393.887</v>
+        <v>13535.241</v>
       </c>
       <c r="E99" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="100">
@@ -6179,10 +6179,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>10671.913</v>
+        <v>7838.655</v>
       </c>
       <c r="E100" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="101">
@@ -6196,10 +6196,10 @@
         <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>12004.29</v>
+        <v>7900.9414</v>
       </c>
       <c r="E101" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="102">
@@ -6213,10 +6213,10 @@
         <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>12069.394</v>
+        <v>7962.361</v>
       </c>
       <c r="E102" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="103">
@@ -6230,10 +6230,10 @@
         <v>2</v>
       </c>
       <c r="D103" t="n">
-        <v>18353.672</v>
+        <v>14216.011</v>
       </c>
       <c r="E103" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="104">
@@ -6247,10 +6247,10 @@
         <v>2</v>
       </c>
       <c r="D104" t="n">
-        <v>18724.156</v>
+        <v>13391.221</v>
       </c>
       <c r="E104" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="105">
@@ -6264,10 +6264,10 @@
         <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>18293.494</v>
+        <v>12719.592</v>
       </c>
       <c r="E105" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="106">
@@ -6281,10 +6281,10 @@
         <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>13030.889</v>
+        <v>8194.685</v>
       </c>
       <c r="E106" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="107">
@@ -6298,10 +6298,10 @@
         <v>2</v>
       </c>
       <c r="D107" t="n">
-        <v>11677.772</v>
+        <v>7772.91</v>
       </c>
       <c r="E107" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="108">
@@ -6315,10 +6315,10 @@
         <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>11033.584</v>
+        <v>7456.9165</v>
       </c>
       <c r="E108" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
     <row r="109">
@@ -6332,10 +6332,10 @@
         <v>2</v>
       </c>
       <c r="D109" t="n">
-        <v>18766.234</v>
+        <v>12988.521</v>
       </c>
       <c r="E109" t="n">
-        <v>21.3582849159623</v>
+        <v>24.3695516840659</v>
       </c>
     </row>
   </sheetData>
